--- a/Ergebnisse_Summary_Reeval/Reeval_LHS_Modell_2/Reeval_LHS_Modell_2_summary.xlsx
+++ b/Ergebnisse_Summary_Reeval/Reeval_LHS_Modell_2/Reeval_LHS_Modell_2_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="94">
   <si>
     <t>timestamp</t>
   </si>
@@ -88,6 +88,21 @@
     <t>2025-11-22 12:37:13</t>
   </si>
   <si>
+    <t>2025-12-23 22:28:59</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:00</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:01</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:02</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:03</t>
+  </si>
+  <si>
     <t>Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0</t>
   </si>
   <si>
@@ -191,6 +206,96 @@
   </si>
   <si>
     <t>Ergebnisse/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_462.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_125.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_153.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_214.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_233.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_384.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_393.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_468.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_487.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_497.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_0_91.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_131.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_158.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_206.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_250.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_251.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_308.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_399.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_425.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_428.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42_87.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_162.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_285.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_294.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_296.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_313.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_329.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_407.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_450.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_459.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_999_462.keras</t>
   </si>
 </sst>
 </file>
@@ -548,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,13 +693,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -609,7 +714,7 @@
         <v>-0.5929246010857179</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -617,13 +722,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -638,7 +743,7 @@
         <v>-0.1686031737152776</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -646,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,7 +772,7 @@
         <v>-0.2458293832805176</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -675,13 +780,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -696,7 +801,7 @@
         <v>-0.04410810694798761</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -704,13 +809,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>384</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -725,7 +830,7 @@
         <v>0.002507932927962253</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -733,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -754,7 +859,7 @@
         <v>-0.06885557906159234</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -762,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>468</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -783,7 +888,7 @@
         <v>-0.1123400383545192</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -791,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>487</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -812,7 +917,7 @@
         <v>-0.08534593322433603</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -820,13 +925,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -841,7 +946,7 @@
         <v>-0.1117635919431494</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -849,13 +954,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -870,7 +975,7 @@
         <v>-0.2671034158743852</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -878,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -899,7 +1004,7 @@
         <v>-0.3465423676707891</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -907,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -928,7 +1033,7 @@
         <v>-0.3873786508872834</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -936,13 +1041,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -957,7 +1062,7 @@
         <v>-0.05101514847601907</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -965,13 +1070,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -986,7 +1091,7 @@
         <v>0.04115315949378018</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -994,13 +1099,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>251</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1015,7 +1120,7 @@
         <v>-0.2544409428583125</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1023,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>308</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1044,7 +1149,7 @@
         <v>0.2326752760162583</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1052,13 +1157,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>399</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1073,7 +1178,7 @@
         <v>-0.02259343190659124</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1081,13 +1186,13 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>425</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1102,7 +1207,7 @@
         <v>-0.1796486994263591</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1110,13 +1215,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>428</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1131,7 +1236,7 @@
         <v>-0.05369966853525021</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1139,13 +1244,13 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1160,7 +1265,7 @@
         <v>0.02970804022153506</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1168,13 +1273,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1189,7 +1294,7 @@
         <v>-0.01602335468849514</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1197,13 +1302,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1218,7 +1323,7 @@
         <v>-0.2334112888620232</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1226,13 +1331,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>294</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1247,7 +1352,7 @@
         <v>-0.2209655316817172</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1255,13 +1360,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1276,7 +1381,7 @@
         <v>-0.3156235392765787</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1284,13 +1389,13 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1305,7 +1410,7 @@
         <v>-0.5477036333014353</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1313,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>329</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1334,7 +1439,7 @@
         <v>-0.1820636073687336</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1342,13 +1447,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>407</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1363,7 +1468,7 @@
         <v>-0.08140108300212057</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1371,13 +1476,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>450</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1392,7 +1497,7 @@
         <v>0.1304709059557372</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1400,13 +1505,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>459</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1421,7 +1526,7 @@
         <v>0.06669211520702967</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1429,13 +1534,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>462</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1450,7 +1555,7 @@
         <v>-0.01577662047270434</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1458,13 +1563,13 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1479,7 +1584,7 @@
         <v>-0.5929246010857179</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1487,13 +1592,13 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1508,7 +1613,7 @@
         <v>-0.1686031737152776</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1516,13 +1621,13 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1537,7 +1642,7 @@
         <v>-0.2458293832805176</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1545,13 +1650,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1566,7 +1671,7 @@
         <v>-0.04410810694798761</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1574,13 +1679,13 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>384</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1595,7 +1700,7 @@
         <v>0.002507932927962253</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1603,13 +1708,13 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>393</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1624,7 +1729,7 @@
         <v>-0.06885557906159234</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1632,13 +1737,13 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>468</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1653,7 +1758,7 @@
         <v>-0.1123400383545192</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1661,13 +1766,13 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <v>487</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1682,7 +1787,7 @@
         <v>-0.08534593322433603</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1690,13 +1795,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>497</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1711,7 +1816,7 @@
         <v>-0.1117635919431494</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1719,13 +1824,13 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1740,7 +1845,7 @@
         <v>-0.2671034158743852</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1748,13 +1853,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1769,7 +1874,7 @@
         <v>-0.3465423676707891</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1777,13 +1882,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1798,7 +1903,7 @@
         <v>-0.3873786508872834</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1806,13 +1911,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>206</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1827,7 +1932,7 @@
         <v>-0.05101514847601907</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1835,13 +1940,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1856,7 +1961,7 @@
         <v>0.04115315949378018</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1864,13 +1969,13 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C46">
         <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1885,7 +1990,7 @@
         <v>-0.2544409428583125</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1893,13 +1998,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>308</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1914,7 +2019,7 @@
         <v>0.2326752760162583</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1922,13 +2027,13 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48">
         <v>399</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1943,7 +2048,7 @@
         <v>-0.02259343190659124</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1951,13 +2056,13 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>425</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1972,7 +2077,7 @@
         <v>-0.1796486994263591</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1980,13 +2085,13 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C50">
         <v>428</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2001,7 +2106,7 @@
         <v>-0.05369966853525021</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2009,13 +2114,13 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2030,7 +2135,7 @@
         <v>0.02970804022153506</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2038,13 +2143,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2059,7 +2164,7 @@
         <v>-0.01602335468849514</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2067,13 +2172,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>285</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2088,7 +2193,7 @@
         <v>-0.2334112888620232</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2096,13 +2201,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>294</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2117,7 +2222,7 @@
         <v>-0.2209655316817172</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2125,13 +2230,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>296</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2146,7 +2251,7 @@
         <v>-0.3156235392765787</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2154,13 +2259,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>313</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2175,7 +2280,7 @@
         <v>-0.5477036333014353</v>
       </c>
       <c r="I56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2183,13 +2288,13 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>329</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2204,7 +2309,7 @@
         <v>-0.1820636073687336</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2212,13 +2317,13 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>407</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2233,7 +2338,7 @@
         <v>-0.08140108300212057</v>
       </c>
       <c r="I58" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2241,13 +2346,13 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>450</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2262,7 +2367,7 @@
         <v>0.1304709059557372</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2270,13 +2375,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>459</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2291,7 +2396,7 @@
         <v>0.06669211520702967</v>
       </c>
       <c r="I60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2299,13 +2404,13 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>462</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2320,7 +2425,7 @@
         <v>-0.01577662047270434</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2328,13 +2433,13 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2349,7 +2454,7 @@
         <v>-0.5929246010857179</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2357,13 +2462,13 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63">
         <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2378,7 +2483,7 @@
         <v>-0.1686031737152776</v>
       </c>
       <c r="I63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2386,13 +2491,13 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2407,7 +2512,7 @@
         <v>-0.2458293832805176</v>
       </c>
       <c r="I64" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2415,13 +2520,13 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2436,7 +2541,7 @@
         <v>-0.04410810694798761</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2444,13 +2549,13 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>384</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2465,7 +2570,7 @@
         <v>0.002507932927962253</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2473,13 +2578,13 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C67">
         <v>393</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2494,7 +2599,7 @@
         <v>-0.06885557906159234</v>
       </c>
       <c r="I67" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2502,13 +2607,13 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>468</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2523,7 +2628,7 @@
         <v>-0.1123400383545192</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2531,13 +2636,13 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <v>487</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2552,7 +2657,7 @@
         <v>-0.08534593322433603</v>
       </c>
       <c r="I69" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2560,13 +2665,13 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>497</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2581,7 +2686,7 @@
         <v>-0.1117635919431494</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2589,13 +2694,13 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71">
         <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2610,7 +2715,7 @@
         <v>-0.2671034158743852</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2618,13 +2723,13 @@
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2639,7 +2744,7 @@
         <v>-0.3465423676707891</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2647,13 +2752,13 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C73">
         <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2668,7 +2773,7 @@
         <v>-0.3873786508872834</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2676,13 +2781,13 @@
         <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C74">
         <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2697,7 +2802,7 @@
         <v>-0.05101514847601907</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2705,13 +2810,13 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C75">
         <v>250</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2726,7 +2831,7 @@
         <v>0.04115315949378018</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2734,13 +2839,13 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C76">
         <v>251</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2755,7 +2860,7 @@
         <v>-0.2544409428583125</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2763,13 +2868,13 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C77">
         <v>308</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2784,7 +2889,7 @@
         <v>0.2326752760162583</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2792,13 +2897,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C78">
         <v>399</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2813,7 +2918,7 @@
         <v>-0.02259343190659124</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2821,13 +2926,13 @@
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C79">
         <v>425</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2842,7 +2947,7 @@
         <v>-0.1796486994263591</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2850,13 +2955,13 @@
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C80">
         <v>428</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2871,7 +2976,7 @@
         <v>-0.05369966853525021</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2879,13 +2984,13 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C81">
         <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2900,7 +3005,7 @@
         <v>0.02970804022153506</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2908,16 +3013,16 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C82">
         <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
       </c>
       <c r="F82">
         <v>98</v>
@@ -2929,7 +3034,7 @@
         <v>-0.01602335468849514</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2937,16 +3042,16 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>285</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
       </c>
       <c r="F83">
         <v>98</v>
@@ -2958,7 +3063,7 @@
         <v>-0.2334112888620232</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2966,16 +3071,16 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C84">
         <v>294</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
       </c>
       <c r="F84">
         <v>98</v>
@@ -2987,7 +3092,7 @@
         <v>-0.2209655316817172</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2995,16 +3100,16 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>296</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
       </c>
       <c r="F85">
         <v>98</v>
@@ -3016,7 +3121,7 @@
         <v>-0.3156235392765787</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3024,16 +3129,16 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C86">
         <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
       </c>
       <c r="F86">
         <v>98</v>
@@ -3045,7 +3150,7 @@
         <v>-0.5477036333014353</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3053,16 +3158,16 @@
         <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>329</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
       </c>
       <c r="F87">
         <v>98</v>
@@ -3074,7 +3179,7 @@
         <v>-0.1820636073687336</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3082,16 +3187,16 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C88">
         <v>407</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
       </c>
       <c r="F88">
         <v>98</v>
@@ -3103,7 +3208,7 @@
         <v>-0.08140108300212057</v>
       </c>
       <c r="I88" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3111,16 +3216,16 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C89">
         <v>450</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
       </c>
       <c r="F89">
         <v>98</v>
@@ -3132,7 +3237,7 @@
         <v>0.1304709059557372</v>
       </c>
       <c r="I89" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3140,16 +3245,16 @@
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C90">
         <v>459</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
       </c>
       <c r="F90">
         <v>98</v>
@@ -3161,7 +3266,7 @@
         <v>0.06669211520702967</v>
       </c>
       <c r="I90" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3169,16 +3274,16 @@
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>462</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
       </c>
       <c r="F91">
         <v>98</v>
@@ -3190,7 +3295,877 @@
         <v>-0.01577662047270434</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <v>125</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>98</v>
+      </c>
+      <c r="G92">
+        <v>12.18621049679115</v>
+      </c>
+      <c r="H92">
+        <v>-0.5929245018911353</v>
+      </c>
+      <c r="I92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93">
+        <v>153</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>98</v>
+      </c>
+      <c r="G93">
+        <v>10.43769481462301</v>
+      </c>
+      <c r="H93">
+        <v>-0.1686030898825137</v>
+      </c>
+      <c r="I93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>98</v>
+      </c>
+      <c r="G94">
+        <v>10.77705973093316</v>
+      </c>
+      <c r="H94">
+        <v>-0.2458289573647727</v>
+      </c>
+      <c r="I94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95">
+        <v>233</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>98</v>
+      </c>
+      <c r="G95">
+        <v>9.866059943326842</v>
+      </c>
+      <c r="H95">
+        <v>-0.04410780179259088</v>
+      </c>
+      <c r="I95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>384</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>98</v>
+      </c>
+      <c r="G96">
+        <v>9.643302196968849</v>
+      </c>
+      <c r="H96">
+        <v>0.002508061040317533</v>
+      </c>
+      <c r="I96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>393</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>98</v>
+      </c>
+      <c r="G97">
+        <v>9.982299347451706</v>
+      </c>
+      <c r="H97">
+        <v>-0.06885555800476539</v>
+      </c>
+      <c r="I97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>468</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>98</v>
+      </c>
+      <c r="G98">
+        <v>10.18333109097509</v>
+      </c>
+      <c r="H98">
+        <v>-0.1123400383545192</v>
+      </c>
+      <c r="I98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>487</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>98</v>
+      </c>
+      <c r="G99">
+        <v>10.05900840362646</v>
+      </c>
+      <c r="H99">
+        <v>-0.08534593322433603</v>
+      </c>
+      <c r="I99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>497</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>98</v>
+      </c>
+      <c r="G100">
+        <v>10.18069210236681</v>
+      </c>
+      <c r="H100">
+        <v>-0.1117635919431494</v>
+      </c>
+      <c r="I100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101">
+        <v>91</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>98</v>
+      </c>
+      <c r="G101">
+        <v>10.86868753938579</v>
+      </c>
+      <c r="H101">
+        <v>-0.2671033771303881</v>
+      </c>
+      <c r="I101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>131</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>98</v>
+      </c>
+      <c r="G102">
+        <v>11.20420732901345</v>
+      </c>
+      <c r="H102">
+        <v>-0.3465426530480609</v>
+      </c>
+      <c r="I102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>158</v>
+      </c>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>98</v>
+      </c>
+      <c r="G103">
+        <v>11.37283123137511</v>
+      </c>
+      <c r="H103">
+        <v>-0.3873787241937958</v>
+      </c>
+      <c r="I103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>206</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>98</v>
+      </c>
+      <c r="G104">
+        <v>9.898640639578119</v>
+      </c>
+      <c r="H104">
+        <v>-0.0510151037497526</v>
+      </c>
+      <c r="I104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>250</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>98</v>
+      </c>
+      <c r="G105">
+        <v>9.454655676819741</v>
+      </c>
+      <c r="H105">
+        <v>0.0411530841042933</v>
+      </c>
+      <c r="I105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>251</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>98</v>
+      </c>
+      <c r="G106">
+        <v>10.81424465895879</v>
+      </c>
+      <c r="H106">
+        <v>-0.2544409503342759</v>
+      </c>
+      <c r="I106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>308</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>98</v>
+      </c>
+      <c r="G107">
+        <v>8.457863184934128</v>
+      </c>
+      <c r="H107">
+        <v>0.2326753451252795</v>
+      </c>
+      <c r="I107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>399</v>
+      </c>
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>98</v>
+      </c>
+      <c r="G108">
+        <v>9.763882368687424</v>
+      </c>
+      <c r="H108">
+        <v>-0.0225932424978843</v>
+      </c>
+      <c r="I108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>425</v>
+      </c>
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>98</v>
+      </c>
+      <c r="G109">
+        <v>10.4869067167798</v>
+      </c>
+      <c r="H109">
+        <v>-0.1796485850419027</v>
+      </c>
+      <c r="I109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110">
+        <v>428</v>
+      </c>
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>98</v>
+      </c>
+      <c r="G110">
+        <v>9.911274807188414</v>
+      </c>
+      <c r="H110">
+        <v>-0.05369975018268569</v>
+      </c>
+      <c r="I110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>87</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>98</v>
+      </c>
+      <c r="G111">
+        <v>9.510913761238287</v>
+      </c>
+      <c r="H111">
+        <v>0.02970827195818815</v>
+      </c>
+      <c r="I111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112">
+        <v>162</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112">
+        <v>98</v>
+      </c>
+      <c r="G112">
+        <v>9.732466662912058</v>
+      </c>
+      <c r="H112">
+        <v>-0.01602335468849514</v>
+      </c>
+      <c r="I112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113">
+        <v>285</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113">
+        <v>98</v>
+      </c>
+      <c r="G113">
+        <v>10.72321562145223</v>
+      </c>
+      <c r="H113">
+        <v>-0.2334112888620232</v>
+      </c>
+      <c r="I113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114">
+        <v>294</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114">
+        <v>98</v>
+      </c>
+      <c r="G114">
+        <v>10.66897705772956</v>
+      </c>
+      <c r="H114">
+        <v>-0.2209655316817172</v>
+      </c>
+      <c r="I114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115">
+        <v>296</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115">
+        <v>98</v>
+      </c>
+      <c r="G115">
+        <v>11.07482562697575</v>
+      </c>
+      <c r="H115">
+        <v>-0.3156235392765787</v>
+      </c>
+      <c r="I115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116">
+        <v>313</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116">
+        <v>98</v>
+      </c>
+      <c r="G116">
+        <v>12.01199050914511</v>
+      </c>
+      <c r="H116">
+        <v>-0.5477036333014353</v>
+      </c>
+      <c r="I116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117">
+        <v>329</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117">
+        <v>98</v>
+      </c>
+      <c r="G117">
+        <v>10.4976358293656</v>
+      </c>
+      <c r="H117">
+        <v>-0.1820636073687336</v>
+      </c>
+      <c r="I117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118">
+        <v>407</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118">
+        <v>98</v>
+      </c>
+      <c r="G118">
+        <v>10.04071128615104</v>
+      </c>
+      <c r="H118">
+        <v>-0.08140108300212057</v>
+      </c>
+      <c r="I118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119">
+        <v>450</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119">
+        <v>98</v>
+      </c>
+      <c r="G119">
+        <v>9.003536681179652</v>
+      </c>
+      <c r="H119">
+        <v>0.1304709059557372</v>
+      </c>
+      <c r="I119" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120">
+        <v>459</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120">
+        <v>98</v>
+      </c>
+      <c r="G120">
+        <v>9.327892808658049</v>
+      </c>
+      <c r="H120">
+        <v>0.06669211520702967</v>
+      </c>
+      <c r="I120" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121">
+        <v>462</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121">
+        <v>98</v>
+      </c>
+      <c r="G121">
+        <v>9.731284860189151</v>
+      </c>
+      <c r="H121">
+        <v>-0.01577662047270434</v>
+      </c>
+      <c r="I121" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
